--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44272,6 +44272,41 @@
         <v>108700</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>226700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44307,6 +44307,41 @@
         <v>226700</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>93900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44342,6 +44342,41 @@
         <v>93900</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>71300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44377,6 +44377,41 @@
         <v>71300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>81700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44412,6 +44412,41 @@
         <v>81700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>141200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44447,6 +44447,41 @@
         <v>141200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>104400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44482,6 +44482,41 @@
         <v>104400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>914400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44517,6 +44517,41 @@
         <v>914400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>184500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44552,6 +44552,41 @@
         <v>184500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>81800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44587,6 +44587,41 @@
         <v>81800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>365400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44622,6 +44622,41 @@
         <v>365400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>54500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44657,6 +44657,41 @@
         <v>54500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>58400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44692,6 +44692,76 @@
         <v>58400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>125700</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>5052000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44762,6 +44762,76 @@
         <v>5052000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>167200</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>47900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44832,6 +44832,41 @@
         <v>47900</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>225600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44867,6 +44867,41 @@
         <v>225600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>622300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44902,6 +44902,41 @@
         <v>622300</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2355000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44937,6 +44937,41 @@
         <v>2355000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>536500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44972,6 +44972,76 @@
         <v>536500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>495700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45042,6 +45042,41 @@
         <v>495700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>148100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45077,6 +45077,41 @@
         <v>148100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>390500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1629"/>
+  <dimension ref="A1:I1630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58797,6 +58797,41 @@
         <v>390500</v>
       </c>
     </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1630" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>525700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1630"/>
+  <dimension ref="A1:I1631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58832,6 +58832,41 @@
         <v>525700</v>
       </c>
     </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1631" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>173800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1631"/>
+  <dimension ref="A1:I1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58867,6 +58867,41 @@
         <v>173800</v>
       </c>
     </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1632" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>156200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1632"/>
+  <dimension ref="A1:I1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58902,6 +58902,41 @@
         <v>156200</v>
       </c>
     </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1633" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>88600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1633"/>
+  <dimension ref="A1:I1634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58937,6 +58937,41 @@
         <v>88600</v>
       </c>
     </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1634" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>158600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1634"/>
+  <dimension ref="A1:I1635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58972,6 +58972,41 @@
         <v>158600</v>
       </c>
     </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1635" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>88400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1635"/>
+  <dimension ref="A1:I1636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59007,6 +59007,41 @@
         <v>88400</v>
       </c>
     </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1636" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>38100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1636"/>
+  <dimension ref="A1:I1637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59042,6 +59042,41 @@
         <v>38100</v>
       </c>
     </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1637" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>142500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1637"/>
+  <dimension ref="A1:I1638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59077,6 +59077,41 @@
         <v>142500</v>
       </c>
     </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1638" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>54400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1638"/>
+  <dimension ref="A1:I1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59112,6 +59112,41 @@
         <v>54400</v>
       </c>
     </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1639" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>103200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1639"/>
+  <dimension ref="A1:I1640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59147,6 +59147,41 @@
         <v>103200</v>
       </c>
     </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>390400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1640"/>
+  <dimension ref="A1:I1641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59182,6 +59182,41 @@
         <v>390400</v>
       </c>
     </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1641" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>419000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1641"/>
+  <dimension ref="A1:I1642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59217,6 +59217,41 @@
         <v>419000</v>
       </c>
     </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1642" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>261200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1642"/>
+  <dimension ref="A1:I1643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59252,6 +59252,41 @@
         <v>261200</v>
       </c>
     </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1643" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>18200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1643"/>
+  <dimension ref="A1:I1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59287,6 +59287,41 @@
         <v>18200</v>
       </c>
     </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1644" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>281300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1644"/>
+  <dimension ref="A1:I1645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59322,6 +59322,41 @@
         <v>281300</v>
       </c>
     </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1645" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>218400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1645"/>
+  <dimension ref="A1:I1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59357,6 +59357,41 @@
         <v>218400</v>
       </c>
     </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1646" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>123700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1646"/>
+  <dimension ref="A1:I1647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59392,6 +59392,41 @@
         <v>123700</v>
       </c>
     </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1647" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>97300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1647"/>
+  <dimension ref="A1:I1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59427,6 +59427,41 @@
         <v>97300</v>
       </c>
     </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>211000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1648"/>
+  <dimension ref="A1:I1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59462,6 +59462,43 @@
         <v>211000</v>
       </c>
     </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1649"/>
+  <dimension ref="A1:I1650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59499,6 +59499,41 @@
         </is>
       </c>
     </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>124600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1650"/>
+  <dimension ref="A1:I1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59534,6 +59534,41 @@
         <v>124600</v>
       </c>
     </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>103000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1651"/>
+  <dimension ref="A1:I1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59569,6 +59569,41 @@
         <v>103000</v>
       </c>
     </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>117000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1652"/>
+  <dimension ref="A1:I1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59604,6 +59604,41 @@
         <v>117000</v>
       </c>
     </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>119900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1653"/>
+  <dimension ref="A1:I1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59639,6 +59639,41 @@
         <v>119900</v>
       </c>
     </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>849000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1654"/>
+  <dimension ref="A1:I1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59674,6 +59674,76 @@
         <v>849000</v>
       </c>
     </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>347500</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>29600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1656"/>
+  <dimension ref="A1:I1657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59744,6 +59744,41 @@
         <v>29600</v>
       </c>
     </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>152900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1661"/>
+  <dimension ref="A1:I1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59919,6 +59919,41 @@
         <v>7446700</v>
       </c>
     </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>1383400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0155.xlsx
+++ b/data/0155.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1662"/>
+  <dimension ref="A1:I1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59954,6 +59954,111 @@
         <v>1383400</v>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>768800</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>2260600</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>0155</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>MGRC</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>1876300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
